--- a/data/input/absenteeism_data_35.xlsx
+++ b/data/input/absenteeism_data_35.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56042</v>
+        <v>89527</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcelo Pinto</t>
+          <t>Otávio Azevedo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>11852.22</v>
+        <v>6853.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>86757</v>
+        <v>82269</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thales da Conceição</t>
+          <t>André Dias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>12443.37</v>
+        <v>7981.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1701</v>
+        <v>96230</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Davi Fogaça</t>
+          <t>Amanda Azevedo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45105</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>6308.88</v>
+        <v>11174.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>90082</v>
+        <v>74691</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lorena Nogueira</t>
+          <t>Raul Jesus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>6426.36</v>
+        <v>10272.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>48697</v>
+        <v>73154</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dra. Sophie Cardoso</t>
+          <t>Maria Alice da Mata</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>2713.53</v>
+        <v>11671.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4237</v>
+        <v>53003</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Isabella Almeida</t>
+          <t>Juan da Luz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45096</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>6829.63</v>
+        <v>11327.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>51856</v>
+        <v>79035</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Luna Cunha</t>
+          <t>Maria Julia da Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45101</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>6479.17</v>
+        <v>8521.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79116</v>
+        <v>62102</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bryan Monteiro</t>
+          <t>Luna Jesus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>4426.38</v>
+        <v>3126.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20329</v>
+        <v>14348</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro Miguel Caldeira</t>
+          <t>Lucca das Neves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45095</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>10678.34</v>
+        <v>8741.950000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13249</v>
+        <v>65557</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maitê Campos</t>
+          <t>Júlia da Conceição</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45097</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>6903.67</v>
+        <v>7799.62</v>
       </c>
     </row>
   </sheetData>
